--- a/system_cases/IMR_case/2IBR_same_tuned_LIMR.xlsx
+++ b/system_cases/IMR_case/2IBR_same_tuned_LIMR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Simplus-Grid-Tool\system_cases\IMR_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB25ADA2-6532-4536-9E01-E1E64E5C6D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E5952-254A-4FCC-8920-A0E25E04D6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1382,7 +1382,7 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
